--- a/biology/Botanique/Andreï_Beketov/Andreï_Beketov.xlsx
+++ b/biology/Botanique/Andreï_Beketov/Andreï_Beketov.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andre%C3%AF_Beketov</t>
+          <t>Andreï_Beketov</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Andreï Nikolaïevitch Beketov (Андре́й Никола́евич Беке́тов), né le 26 novembre (8 décembre dans le calendrier grégorien) 1825 à Alfierevka dans le gouvernement de Penza (Empire russe) et mort dans sa propriété de Chakhmatovo, près de Moscou, le 1er (14) juillet 1902, est un botaniste russe qui popularisa la botanique et la géographie en Russie. C'est le grand-père maternel du poète Alexandre Blok et le frère du chimiste Nikolaï Beketov.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andre%C3%AF_Beketov</t>
+          <t>Andreï_Beketov</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Andreï Beketov naît dans la famille d'un officier de marine, issue de la noblesse depuis 1621. Il fait ses études au lycée classique no 1 de Saint-Pétersbourg, puis à la faculté des langues orientales de l'université de Saint-Pétersbourg. En 1842 il entre comme junker (aspirant) au régiment des chasseurs de la garde, mais démissionne en 1845 pour entrer au département des sciences naturelles de l'université impériale de Kazan dont il sort en 1849.
 Il enseigne ensuite les sciences naturelles au lycée de Tiflis tout en étudiant et décrivant la flore de Transcaucasie, ce qui lui vaut en 1853 le titre de maître en botanique de l'université de Saint-Pétersbourg. Il présente sa thèse à Moscou en 1858 sur Les relations morphologiques des parties feuillues entre elles et la tige et l'année suivante enseigne la botanique à la chaire de l'université de Kharkov. Il se prépare à l'université de Heidelberg à devenir professeur et y tisse des liens d'amitié avec Setchenov, Mendeleïev et Borodine.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Andre%C3%AF_Beketov</t>
+          <t>Andreï_Beketov</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,9 +562,11 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>География растений [Géographie des plantes] // Le Messager de la Société impériale géographique de Russie. 1856. vol. 16: Première et deuxième partie. p. 45-92, 161—208; vol. 17: Troisième partie; quatrième et dernière partie. p. 121—166, 184—221. — Publication anonyme éditée par Lipchitz[1], 1947; la 1re partie se présente comme inspirée des travaux d'Alphonse de Candolle[2]; la 2e partie est entièrement originale.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>География растений [Géographie des plantes] // Le Messager de la Société impériale géographique de Russie. 1856. vol. 16: Première et deuxième partie. p. 45-92, 161—208; vol. 17: Troisième partie; quatrième et dernière partie. p. 121—166, 184—221. — Publication anonyme éditée par Lipchitz, 1947; la 1re partie se présente comme inspirée des travaux d'Alphonse de Candolle; la 2e partie est entièrement originale.
 Гармония в природе [L'Harmonie dans la nature] // Le Messager russe. 1860. Т. 30, novembre-décembre. p. 197—242, 534—558.
 Беседы о земле и тварях [Causeries sur la terre et les herbes]. Saint-Pétersbourg.: 1864—1879.
 Есть ли причины предполагать, что формы растений приспособлены к свету? [Y a-t-il des raisons de supposer que les formes végétales s'adaptent à la lumière?] // Натуралист [Le Naturaliste]. 1865. № 14. p. 265—267; № 15. p. 286—290; № 16. p. 295-298.
